--- a/Java/Zadanie1_MaslovAN/table_math.xlsx
+++ b/Java/Zadanie1_MaslovAN/table_math.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>-3.0+2.0</t>
+  </si>
+  <si>
+    <t>abs(-0.1)</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -157,6 +160,17 @@
         <v>-1.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Java/Zadanie1_MaslovAN/table_math.xlsx
+++ b/Java/Zadanie1_MaslovAN/table_math.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Operation</t>
+    <t>operation</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>result</t>
   </si>
   <si>
     <t>0.323+23.23</t>
@@ -89,7 +89,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="2.41796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.91015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.421875" customWidth="true" bestFit="true"/>
   </cols>
